--- a/tut06/output/2001ME30.xlsx
+++ b/tut06/output/2001ME30.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
